--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ptprm-Ptprm.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H2">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I2">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J2">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N2">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O2">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P2">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q2">
-        <v>10852.18560678298</v>
+        <v>7828.087867096325</v>
       </c>
       <c r="R2">
-        <v>43408.7424271319</v>
+        <v>31312.3514683853</v>
       </c>
       <c r="S2">
-        <v>0.343396316344547</v>
+        <v>0.7641770781903977</v>
       </c>
       <c r="T2">
-        <v>0.2384593277485793</v>
+        <v>0.6974228616364266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H3">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I3">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J3">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.501076</v>
       </c>
       <c r="O3">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P3">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q3">
-        <v>954.964083678208</v>
+        <v>811.0661518982107</v>
       </c>
       <c r="R3">
-        <v>5729.784502069248</v>
+        <v>4866.396911389264</v>
       </c>
       <c r="S3">
-        <v>0.03021798193089091</v>
+        <v>0.07917618870655395</v>
       </c>
       <c r="T3">
-        <v>0.03147570014960085</v>
+        <v>0.1083897024861412</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H4">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I4">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J4">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N4">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O4">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P4">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q4">
-        <v>13.572425558272</v>
+        <v>3.118972943464</v>
       </c>
       <c r="R4">
-        <v>81.43455334963198</v>
+        <v>18.713837660784</v>
       </c>
       <c r="S4">
-        <v>0.0004294730213292777</v>
+        <v>0.0003044737963289261</v>
       </c>
       <c r="T4">
-        <v>0.0004473483395621626</v>
+        <v>0.0004168150139334311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H5">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I5">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J5">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N5">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O5">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P5">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q5">
-        <v>258.298840347264</v>
+        <v>289.2340434821</v>
       </c>
       <c r="R5">
-        <v>1033.195361389056</v>
+        <v>1156.9361739284</v>
       </c>
       <c r="S5">
-        <v>0.008173364657150628</v>
+        <v>0.02823499557157256</v>
       </c>
       <c r="T5">
-        <v>0.005675701656719549</v>
+        <v>0.02576854497709979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H6">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I6">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J6">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N6">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O6">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P6">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q6">
-        <v>6415.39303088</v>
+        <v>10.19750439371333</v>
       </c>
       <c r="R6">
-        <v>38492.35818528</v>
+        <v>61.18502636228001</v>
       </c>
       <c r="S6">
-        <v>0.2030026406228906</v>
+        <v>0.0009954792593957107</v>
       </c>
       <c r="T6">
-        <v>0.2114519182795376</v>
+        <v>0.001362779675552805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="H7">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="I7">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="J7">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N7">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O7">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P7">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q7">
-        <v>24.665548829952</v>
+        <v>13.15314975140533</v>
       </c>
       <c r="R7">
-        <v>147.993292979712</v>
+        <v>78.91889850843199</v>
       </c>
       <c r="S7">
-        <v>0.0007804933416848309</v>
+        <v>0.001284009034732262</v>
       </c>
       <c r="T7">
-        <v>0.0008129786578010377</v>
+        <v>0.001757767828152947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>27.501076</v>
       </c>
       <c r="I8">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J8">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N8">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O8">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P8">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q8">
-        <v>954.964083678208</v>
+        <v>811.0661518982107</v>
       </c>
       <c r="R8">
-        <v>5729.784502069248</v>
+        <v>4866.396911389264</v>
       </c>
       <c r="S8">
-        <v>0.03021798193089091</v>
+        <v>0.07917618870655395</v>
       </c>
       <c r="T8">
-        <v>0.03147570014960085</v>
+        <v>0.1083897024861412</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>27.501076</v>
       </c>
       <c r="I9">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J9">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,10 +998,10 @@
         <v>27.501076</v>
       </c>
       <c r="O9">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P9">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q9">
         <v>84.0343534619751</v>
@@ -1010,10 +1010,10 @@
         <v>756.3091811577759</v>
       </c>
       <c r="S9">
-        <v>0.002659103748391591</v>
+        <v>0.008203424359365471</v>
       </c>
       <c r="T9">
-        <v>0.004154669516439102</v>
+        <v>0.01684534340825598</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>27.501076</v>
       </c>
       <c r="I10">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J10">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N10">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O10">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P10">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q10">
-        <v>1.194338118253778</v>
+        <v>0.3231559770506666</v>
       </c>
       <c r="R10">
-        <v>10.749043064284</v>
+        <v>2.908403793455999</v>
       </c>
       <c r="S10">
-        <v>3.779250790014866E-05</v>
+        <v>3.154645100246458E-05</v>
       </c>
       <c r="T10">
-        <v>5.904823405912813E-05</v>
+        <v>6.477914309547449E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>27.501076</v>
       </c>
       <c r="I11">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J11">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N11">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O11">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P11">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q11">
-        <v>22.729625563462</v>
+        <v>29.96746416593333</v>
       </c>
       <c r="R11">
-        <v>136.377753380772</v>
+        <v>179.8047849956</v>
       </c>
       <c r="S11">
-        <v>0.0007192348134467169</v>
+        <v>0.002925420561942779</v>
       </c>
       <c r="T11">
-        <v>0.0007491704567491455</v>
+        <v>0.00400480838413444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1166,10 +1166,10 @@
         <v>27.501076</v>
       </c>
       <c r="I12">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J12">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N12">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O12">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P12">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q12">
-        <v>564.5378865747223</v>
+        <v>1.056560783168889</v>
       </c>
       <c r="R12">
-        <v>5080.8409791725</v>
+        <v>9.509047048519999</v>
       </c>
       <c r="S12">
-        <v>0.01786370393126397</v>
+        <v>0.000103141347659917</v>
       </c>
       <c r="T12">
-        <v>0.02791082755564081</v>
+        <v>0.0002117958726514072</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1228,10 +1228,10 @@
         <v>27.501076</v>
       </c>
       <c r="I13">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="J13">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N13">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O13">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P13">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q13">
-        <v>2.170504089249333</v>
+        <v>1.362794431454222</v>
       </c>
       <c r="R13">
-        <v>19.534536803244</v>
+        <v>12.265149883088</v>
       </c>
       <c r="S13">
-        <v>6.868138233768623E-05</v>
+        <v>0.0001330358427861036</v>
       </c>
       <c r="T13">
-        <v>0.0001073100083883084</v>
+        <v>0.0002731828025914792</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H14">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I14">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J14">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N14">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O14">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P14">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q14">
-        <v>13.572425558272</v>
+        <v>3.118972943464</v>
       </c>
       <c r="R14">
-        <v>81.43455334963198</v>
+        <v>18.713837660784</v>
       </c>
       <c r="S14">
-        <v>0.0004294730213292777</v>
+        <v>0.0003044737963289261</v>
       </c>
       <c r="T14">
-        <v>0.0004473483395621626</v>
+        <v>0.0004168150139334311</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H15">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I15">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J15">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>27.501076</v>
       </c>
       <c r="O15">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P15">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q15">
-        <v>1.194338118253778</v>
+        <v>0.3231559770506666</v>
       </c>
       <c r="R15">
-        <v>10.749043064284</v>
+        <v>2.908403793455999</v>
       </c>
       <c r="S15">
-        <v>3.779250790014866E-05</v>
+        <v>3.154645100246458E-05</v>
       </c>
       <c r="T15">
-        <v>5.904823405912813E-05</v>
+        <v>6.477914309547449E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H16">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I16">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J16">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N16">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O16">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P16">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q16">
-        <v>0.01697452865344444</v>
+        <v>0.001242703504</v>
       </c>
       <c r="R16">
-        <v>0.152770757881</v>
+        <v>0.011184331536</v>
       </c>
       <c r="S16">
-        <v>5.371259599204119E-07</v>
+        <v>1.213125796320349E-07</v>
       </c>
       <c r="T16">
-        <v>8.392229349904988E-07</v>
+        <v>2.491096369176609E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H17">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I17">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J17">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N17">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O17">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P17">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q17">
-        <v>0.3230447680704999</v>
+        <v>0.1152405506</v>
       </c>
       <c r="R17">
-        <v>1.938268608423</v>
+        <v>0.6914433035999999</v>
       </c>
       <c r="S17">
-        <v>1.022212367068729E-05</v>
+        <v>1.124976989805128E-05</v>
       </c>
       <c r="T17">
-        <v>1.064758395469742E-05</v>
+        <v>1.540057979813305E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H18">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I18">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J18">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N18">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O18">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P18">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q18">
-        <v>8.023493837430554</v>
+        <v>0.004063028013333333</v>
       </c>
       <c r="R18">
-        <v>72.21144453687499</v>
+        <v>0.03656725212</v>
       </c>
       <c r="S18">
-        <v>0.0002538878644191923</v>
+        <v>3.966323486078209E-07</v>
       </c>
       <c r="T18">
-        <v>0.0003966825933490825</v>
+        <v>8.144657433811759E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="H19">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="I19">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="J19">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N19">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O19">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P19">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q19">
-        <v>0.03084828600233333</v>
+        <v>0.005240656325333332</v>
       </c>
       <c r="R19">
-        <v>0.277634574021</v>
+        <v>0.04716590692799999</v>
       </c>
       <c r="S19">
-        <v>9.761340399599528E-07</v>
+        <v>5.115922951410036E-07</v>
       </c>
       <c r="T19">
-        <v>1.525143327797278E-06</v>
+        <v>1.050530549090678E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H20">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I20">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J20">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N20">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O20">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P20">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q20">
-        <v>258.298840347264</v>
+        <v>289.2340434821</v>
       </c>
       <c r="R20">
-        <v>1033.195361389056</v>
+        <v>1156.9361739284</v>
       </c>
       <c r="S20">
-        <v>0.008173364657150628</v>
+        <v>0.02823499557157256</v>
       </c>
       <c r="T20">
-        <v>0.005675701656719549</v>
+        <v>0.02576854497709979</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H21">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I21">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J21">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,22 +1742,22 @@
         <v>27.501076</v>
       </c>
       <c r="O21">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P21">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q21">
-        <v>22.729625563462</v>
+        <v>29.96746416593333</v>
       </c>
       <c r="R21">
-        <v>136.377753380772</v>
+        <v>179.8047849956</v>
       </c>
       <c r="S21">
-        <v>0.0007192348134467169</v>
+        <v>0.002925420561942779</v>
       </c>
       <c r="T21">
-        <v>0.0007491704567491455</v>
+        <v>0.00400480838413444</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H22">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I22">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J22">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N22">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O22">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P22">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q22">
-        <v>0.3230447680704999</v>
+        <v>0.1152405506</v>
       </c>
       <c r="R22">
-        <v>1.938268608423</v>
+        <v>0.6914433035999999</v>
       </c>
       <c r="S22">
-        <v>1.022212367068729E-05</v>
+        <v>1.124976989805128E-05</v>
       </c>
       <c r="T22">
-        <v>1.064758395469742E-05</v>
+        <v>1.540057979813305E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H23">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I23">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J23">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N23">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O23">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P23">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q23">
-        <v>6.14791281150225</v>
+        <v>10.6866879025</v>
       </c>
       <c r="R23">
-        <v>24.591651246009</v>
+        <v>42.74675161</v>
       </c>
       <c r="S23">
-        <v>0.0001945387490753723</v>
+        <v>0.001043233299819146</v>
       </c>
       <c r="T23">
-        <v>0.0001350904978229813</v>
+        <v>0.0009521022994267344</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H24">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I24">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J24">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N24">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O24">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P24">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q24">
-        <v>152.6962991871875</v>
+        <v>0.3767798061666667</v>
       </c>
       <c r="R24">
-        <v>916.1777951231251</v>
+        <v>2.260678837</v>
       </c>
       <c r="S24">
-        <v>0.004831777538669373</v>
+        <v>3.678120331375233E-05</v>
       </c>
       <c r="T24">
-        <v>0.005032883444849218</v>
+        <v>5.035230603275905E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="H25">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="I25">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="J25">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N25">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O25">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P25">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q25">
-        <v>0.5870782983405001</v>
+        <v>0.4859856904666666</v>
       </c>
       <c r="R25">
-        <v>3.522469790043</v>
+        <v>2.9159141428</v>
       </c>
       <c r="S25">
-        <v>1.857695144192389E-05</v>
+        <v>4.744186975010489E-05</v>
       </c>
       <c r="T25">
-        <v>1.935015232377076E-05</v>
+        <v>6.494642179176372E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H26">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I26">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J26">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N26">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O26">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P26">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q26">
-        <v>6415.39303088</v>
+        <v>10.19750439371333</v>
       </c>
       <c r="R26">
-        <v>38492.35818528</v>
+        <v>61.18502636228001</v>
       </c>
       <c r="S26">
-        <v>0.2030026406228906</v>
+        <v>0.0009954792593957107</v>
       </c>
       <c r="T26">
-        <v>0.2114519182795376</v>
+        <v>0.001362779675552805</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2090,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H27">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I27">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J27">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,22 +2114,22 @@
         <v>27.501076</v>
       </c>
       <c r="O27">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P27">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q27">
-        <v>564.5378865747223</v>
+        <v>1.056560783168889</v>
       </c>
       <c r="R27">
-        <v>5080.8409791725</v>
+        <v>9.509047048519999</v>
       </c>
       <c r="S27">
-        <v>0.01786370393126397</v>
+        <v>0.000103141347659917</v>
       </c>
       <c r="T27">
-        <v>0.02791082755564081</v>
+        <v>0.0002117958726514072</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2152,46 +2152,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H28">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I28">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J28">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N28">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O28">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P28">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q28">
-        <v>8.023493837430554</v>
+        <v>0.004063028013333333</v>
       </c>
       <c r="R28">
-        <v>72.21144453687499</v>
+        <v>0.03656725212</v>
       </c>
       <c r="S28">
-        <v>0.0002538878644191923</v>
+        <v>3.966323486078209E-07</v>
       </c>
       <c r="T28">
-        <v>0.0003966825933490825</v>
+        <v>8.144657433811759E-07</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2214,16 +2214,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H29">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I29">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J29">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2232,28 +2232,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N29">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O29">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P29">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q29">
-        <v>152.6962991871875</v>
+        <v>0.3767798061666667</v>
       </c>
       <c r="R29">
-        <v>916.1777951231251</v>
+        <v>2.260678837</v>
       </c>
       <c r="S29">
-        <v>0.004831777538669373</v>
+        <v>3.678120331375233E-05</v>
       </c>
       <c r="T29">
-        <v>0.005032883444849218</v>
+        <v>5.035230603275905E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2276,16 +2276,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H30">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I30">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J30">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2294,28 +2294,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N30">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O30">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P30">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q30">
-        <v>3792.53260421007</v>
+        <v>0.01328409921111111</v>
       </c>
       <c r="R30">
-        <v>34132.79343789063</v>
+        <v>0.1195568929</v>
       </c>
       <c r="S30">
-        <v>0.1200073213904785</v>
+        <v>1.296792306612639E-06</v>
       </c>
       <c r="T30">
-        <v>0.1875033120584759</v>
+        <v>2.662901585620761E-06</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2338,16 +2338,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="H31">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="I31">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="J31">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2356,28 +2356,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N31">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O31">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P31">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q31">
-        <v>14.58131991104167</v>
+        <v>0.01713436341777777</v>
       </c>
       <c r="R31">
-        <v>131.231879199375</v>
+        <v>0.15420927076</v>
       </c>
       <c r="S31">
-        <v>0.0004613975217824748</v>
+        <v>1.672654675771633E-06</v>
       </c>
       <c r="T31">
-        <v>0.0007209023791830991</v>
+        <v>3.434717159868791E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2400,16 +2400,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H32">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I32">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J32">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2418,28 +2418,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>104.173824</v>
+        <v>88.476482</v>
       </c>
       <c r="N32">
-        <v>208.347648</v>
+        <v>176.952964</v>
       </c>
       <c r="O32">
-        <v>0.5860002699184933</v>
+        <v>0.8741722245589811</v>
       </c>
       <c r="P32">
-        <v>0.4883229748318005</v>
+        <v>0.8351184716173069</v>
       </c>
       <c r="Q32">
-        <v>24.665548829952</v>
+        <v>13.15314975140533</v>
       </c>
       <c r="R32">
-        <v>147.993292979712</v>
+        <v>78.91889850843199</v>
       </c>
       <c r="S32">
-        <v>0.0007804933416848309</v>
+        <v>0.001284009034732262</v>
       </c>
       <c r="T32">
-        <v>0.0008129786578010377</v>
+        <v>0.001757767828152947</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2462,16 +2462,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H33">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I33">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J33">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,22 +2486,22 @@
         <v>27.501076</v>
       </c>
       <c r="O33">
-        <v>0.05156649831423103</v>
+        <v>0.09057275726931067</v>
       </c>
       <c r="P33">
-        <v>0.06445672592087735</v>
+        <v>0.12978961209687</v>
       </c>
       <c r="Q33">
-        <v>2.170504089249333</v>
+        <v>1.362794431454222</v>
       </c>
       <c r="R33">
-        <v>19.534536803244</v>
+        <v>12.265149883088</v>
       </c>
       <c r="S33">
-        <v>6.868138233768623E-05</v>
+        <v>0.0001330358427861036</v>
       </c>
       <c r="T33">
-        <v>0.0001073100083883084</v>
+        <v>0.0002731828025914792</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2524,46 +2524,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H34">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I34">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J34">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.1302863333333333</v>
+        <v>0.035252</v>
       </c>
       <c r="N34">
-        <v>0.390859</v>
+        <v>0.105756</v>
       </c>
       <c r="O34">
-        <v>0.0007328887773191863</v>
+        <v>0.0003482995544528228</v>
       </c>
       <c r="P34">
-        <v>0.0009160911171878585</v>
+        <v>0.0004991088427564282</v>
       </c>
       <c r="Q34">
-        <v>0.03084828600233333</v>
+        <v>0.005240656325333332</v>
       </c>
       <c r="R34">
-        <v>0.277634574021</v>
+        <v>0.04716590692799999</v>
       </c>
       <c r="S34">
-        <v>9.761340399599528E-07</v>
+        <v>5.115922951410036E-07</v>
       </c>
       <c r="T34">
-        <v>1.525143327797278E-06</v>
+        <v>1.050530549090678E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2586,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H35">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I35">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J35">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2604,28 +2604,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.4794985</v>
+        <v>3.26905</v>
       </c>
       <c r="N35">
-        <v>4.958997</v>
+        <v>6.5381</v>
       </c>
       <c r="O35">
-        <v>0.0139477148334547</v>
+        <v>0.0322991222762964</v>
       </c>
       <c r="P35">
-        <v>0.01162284379241936</v>
+        <v>0.03085615496828363</v>
       </c>
       <c r="Q35">
-        <v>0.5870782983405001</v>
+        <v>0.4859856904666666</v>
       </c>
       <c r="R35">
-        <v>3.522469790043</v>
+        <v>2.9159141428</v>
       </c>
       <c r="S35">
-        <v>1.857695144192389E-05</v>
+        <v>4.744186975010489E-05</v>
       </c>
       <c r="T35">
-        <v>1.935015232377076E-05</v>
+        <v>6.494642179176372E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2648,16 +2648,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H36">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I36">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J36">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2666,28 +2666,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>61.58354166666667</v>
+        <v>0.1152566666666667</v>
       </c>
       <c r="N36">
-        <v>184.750625</v>
+        <v>0.34577</v>
       </c>
       <c r="O36">
-        <v>0.3464207288695042</v>
+        <v>0.001138767889700372</v>
       </c>
       <c r="P36">
-        <v>0.4330165263110358</v>
+        <v>0.001631839938725842</v>
       </c>
       <c r="Q36">
-        <v>14.58131991104167</v>
+        <v>0.01713436341777777</v>
       </c>
       <c r="R36">
-        <v>131.231879199375</v>
+        <v>0.15420927076</v>
       </c>
       <c r="S36">
-        <v>0.0004613975217824748</v>
+        <v>1.672654675771633E-06</v>
       </c>
       <c r="T36">
-        <v>0.0007209023791830991</v>
+        <v>3.434717159868791E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2710,16 +2710,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="H37">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="I37">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="J37">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2728,28 +2728,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.236773</v>
+        <v>0.1486626666666666</v>
       </c>
       <c r="N37">
-        <v>0.710319</v>
+        <v>0.4459879999999999</v>
       </c>
       <c r="O37">
-        <v>0.00133189928699758</v>
+        <v>0.00146882845125861</v>
       </c>
       <c r="P37">
-        <v>0.00166483802667909</v>
+        <v>0.002104812536057093</v>
       </c>
       <c r="Q37">
-        <v>0.05606145352900001</v>
+        <v>0.02210058846044444</v>
       </c>
       <c r="R37">
-        <v>0.504553081761</v>
+        <v>0.198905296144</v>
       </c>
       <c r="S37">
-        <v>1.773955710704663E-06</v>
+        <v>2.157457019226766E-06</v>
       </c>
       <c r="T37">
-        <v>2.771685655076727E-06</v>
+        <v>4.43023581194309E-06</v>
       </c>
     </row>
   </sheetData>
